--- a/Шефы.xlsx
+++ b/Шефы.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Уник\Младшим\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="23040" windowHeight="9372" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="351003" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>№</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>vk шефов</t>
+  </si>
+  <si>
+    <t>https://vk.com/d.gallavich</t>
   </si>
 </sst>
 </file>
@@ -392,9 +395,6 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -419,9 +419,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -443,6 +440,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -725,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,236 +741,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+      <c r="A1" s="26">
         <v>351003</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="6"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="6"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="6"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="6"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="6"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="6"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="6"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="6"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="6"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="6"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -981,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -994,360 +1001,360 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16">
+      <c r="A1" s="27">
         <v>351004</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="5"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="6"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="6"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="6"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="6"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="6"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="6"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="6"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="18">
+      <c r="A14" s="16">
         <v>12</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18">
+      <c r="A15" s="16">
         <v>13</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="6"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="18">
+      <c r="A16" s="16">
         <v>14</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18">
+      <c r="A17" s="16">
         <v>15</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="6"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="18">
+      <c r="A18" s="16">
         <v>16</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="6"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="18">
+      <c r="A19" s="16">
         <v>17</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="6"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="18">
+      <c r="A20" s="16">
         <v>18</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="6"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="18">
+      <c r="A21" s="16">
         <v>19</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="6"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18">
+      <c r="A22" s="16">
         <v>20</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="6"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="18">
+      <c r="A23" s="16">
         <v>21</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="6"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="18">
+      <c r="A24" s="16">
         <v>22</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="6"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="18">
+      <c r="A25" s="16">
         <v>23</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="6"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="18">
+      <c r="A26" s="16">
         <v>24</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="6"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18">
+      <c r="A27" s="16">
         <v>25</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="6"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="18">
+      <c r="A28" s="16">
         <v>26</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="6"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="18">
+      <c r="A29" s="16">
         <v>27</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="6"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="18">
+      <c r="A30" s="16">
         <v>28</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="6"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="18">
+      <c r="A31" s="16">
         <v>29</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="6"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="24">
+      <c r="A32" s="22">
         <v>30</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="9"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Шефы.xlsx
+++ b/Шефы.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="23040" windowHeight="9372" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="351003" sheetId="1" r:id="rId1"/>
     <sheet name="351004" sheetId="2" r:id="rId2"/>
+    <sheet name="351005" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>№</t>
   </si>
@@ -193,13 +194,67 @@
   </si>
   <si>
     <t>https://vk.com/d.gallavich</t>
+  </si>
+  <si>
+    <t>Мателенок Дарья Дмитриевна</t>
+  </si>
+  <si>
+    <t>Беляев Максим Владимирович</t>
+  </si>
+  <si>
+    <t>Заливако Игорь Витальевич</t>
+  </si>
+  <si>
+    <t>Костюков Алексей Олегович</t>
+  </si>
+  <si>
+    <t>Лавренов Илья Викторович</t>
+  </si>
+  <si>
+    <t>Маньковский Виктор Дмитриевич</t>
+  </si>
+  <si>
+    <t>Медведь Александр Александрович</t>
+  </si>
+  <si>
+    <t>Меркушевич Игорь Дмитриевич</t>
+  </si>
+  <si>
+    <t>Мухин Дмитрий Сергеевич</t>
+  </si>
+  <si>
+    <t>Наривончик Александр Михайлович</t>
+  </si>
+  <si>
+    <t>Пуренок Александр Сергеевич</t>
+  </si>
+  <si>
+    <t>Романовский Матвей Игоревич</t>
+  </si>
+  <si>
+    <t>Сапешко Илья Русланович</t>
+  </si>
+  <si>
+    <t>Селивёрстов Егор Викторович</t>
+  </si>
+  <si>
+    <t>Студент Владислав Сергеевич</t>
+  </si>
+  <si>
+    <t>Трегуб Дмитрий Алексеевич</t>
+  </si>
+  <si>
+    <t>Уласко Иван Николаевич</t>
+  </si>
+  <si>
+    <t>Шкредова Кристина Михайловна</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +301,19 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -292,21 +360,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -389,11 +442,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -401,50 +469,79 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,28 +823,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="51.44140625" customWidth="1"/>
-    <col min="3" max="3" width="50.33203125" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" customWidth="1"/>
     <col min="4" max="4" width="43.109375" customWidth="1"/>
     <col min="5" max="5" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="26">
+      <c r="A1" s="31">
         <v>351003</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -766,215 +863,226 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="6">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="8"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -988,378 +1096,643 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
     <col min="4" max="4" width="47.77734375" customWidth="1"/>
     <col min="5" max="5" width="39.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27">
+      <c r="A1" s="31">
         <v>351004</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16">
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16">
-        <v>2</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="B5" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16">
-        <v>3</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="B6" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16">
-        <v>4</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="B7" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16">
-        <v>5</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="B8" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16">
-        <v>6</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="B9" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16">
-        <v>7</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="B10" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16">
-        <v>8</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="B11" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16">
-        <v>9</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="B12" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16">
-        <v>10</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="B13" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16">
-        <v>11</v>
-      </c>
-      <c r="B13" s="17" t="s">
+      <c r="B14" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16">
-        <v>12</v>
-      </c>
-      <c r="B14" s="17" t="s">
+      <c r="B15" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16">
-        <v>13</v>
-      </c>
-      <c r="B15" s="17" t="s">
+      <c r="B16" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="17" t="s">
+      <c r="B17" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16">
-        <v>15</v>
-      </c>
-      <c r="B17" s="17" t="s">
+      <c r="B18" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="20">
         <v>17</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16">
-        <v>16</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16">
-        <v>17</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16">
-        <v>18</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="16">
-        <v>19</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="16">
-        <v>20</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="16">
-        <v>21</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16">
-        <v>22</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="16">
-        <v>23</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="16">
-        <v>24</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="16">
-        <v>25</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="16">
-        <v>26</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="16">
-        <v>27</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="16">
-        <v>28</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="16">
-        <v>29</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="22">
-        <v>30</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="8"/>
-    </row>
+      <c r="B19" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="36.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="32">
+        <v>351005</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>23</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>24</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>25</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>26</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>27</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>28</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>29</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="14">
+        <v>30</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Шефы.xlsx
+++ b/Шефы.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="23040" windowHeight="9372" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="351003" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="156">
   <si>
     <t>№</t>
   </si>
@@ -248,13 +248,259 @@
   </si>
   <si>
     <t>Шкредова Кристина Михайловна</t>
+  </si>
+  <si>
+    <t>Горник Артур Игоревич</t>
+  </si>
+  <si>
+    <t>Комашшо Дмитрий Владиславович</t>
+  </si>
+  <si>
+    <t>Кривов Александр Геннадьевич</t>
+  </si>
+  <si>
+    <t>Бурый Даниил Дмитриевич</t>
+  </si>
+  <si>
+    <t>Зайцев Арсений Романович</t>
+  </si>
+  <si>
+    <t>Непесов Рустам Азатович</t>
+  </si>
+  <si>
+    <t>Гузаев Егор Дмитриевич</t>
+  </si>
+  <si>
+    <t>Рогинов Антон</t>
+  </si>
+  <si>
+    <t>Вердян Давид Сасукович</t>
+  </si>
+  <si>
+    <t>Арефин Владислав Андреевич</t>
+  </si>
+  <si>
+    <t>kirks_wah_wah</t>
+  </si>
+  <si>
+    <t>https://vk.com/cortad810</t>
+  </si>
+  <si>
+    <t>Асепков Данила Игоревич</t>
+  </si>
+  <si>
+    <t>altervisi0n</t>
+  </si>
+  <si>
+    <t>https://vk.com/antitoxical</t>
+  </si>
+  <si>
+    <t>Барановский Артём Анатольевич</t>
+  </si>
+  <si>
+    <t>ArtyomBar</t>
+  </si>
+  <si>
+    <t>https://vk.com/a.baranovsky89</t>
+  </si>
+  <si>
+    <t>Астанов Тимур</t>
+  </si>
+  <si>
+    <t>Демидовец Степан Алексеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stepan Demidovets </t>
+  </si>
+  <si>
+    <t>https://vk.com/id606127966</t>
+  </si>
+  <si>
+    <t>Заяц Александра Руслановна</t>
+  </si>
+  <si>
+    <t>aleks_mind</t>
+  </si>
+  <si>
+    <t>https://vk.com/hazer_saya</t>
+  </si>
+  <si>
+    <t>Иванникова Анна Александровна</t>
+  </si>
+  <si>
+    <t>IAAnelisA</t>
+  </si>
+  <si>
+    <t>https://vk.com/id287899888</t>
+  </si>
+  <si>
+    <t>Кумичова Дарья Дмитриевна</t>
+  </si>
+  <si>
+    <t>JopnyKusAka</t>
+  </si>
+  <si>
+    <t>https://vk.com/slishkom_old</t>
+  </si>
+  <si>
+    <t>Стасевич Яна Александровна</t>
+  </si>
+  <si>
+    <t>ssstsvch</t>
+  </si>
+  <si>
+    <t>https://vk.com/ssssssstsvch</t>
+  </si>
+  <si>
+    <t>Шоть Ксения Сергеевна</t>
+  </si>
+  <si>
+    <t>little_ksushka</t>
+  </si>
+  <si>
+    <t>https://vk.com/shotksysha</t>
+  </si>
+  <si>
+    <t>Елькин Матвей Александрович</t>
+  </si>
+  <si>
+    <t>matfejj</t>
+  </si>
+  <si>
+    <t>https://vk.com/matfejj</t>
+  </si>
+  <si>
+    <t>Калитько Дмитрий Сергеевич</t>
+  </si>
+  <si>
+    <t>Dimaland</t>
+  </si>
+  <si>
+    <t>https://vk.com/jutry</t>
+  </si>
+  <si>
+    <t>Карась Андрей Сергеевич</t>
+  </si>
+  <si>
+    <t>clownfishleader</t>
+  </si>
+  <si>
+    <t>https://vk.com/clown_fish_leader</t>
+  </si>
+  <si>
+    <t>Кротюк Иван Михайлович</t>
+  </si>
+  <si>
+    <t>IShpf</t>
+  </si>
+  <si>
+    <t>https://vk.com/youngik</t>
+  </si>
+  <si>
+    <t>Крутько Андрей Алексеевич</t>
+  </si>
+  <si>
+    <t>obgdete</t>
+  </si>
+  <si>
+    <t>https://vk.com/determined_obg</t>
+  </si>
+  <si>
+    <t>Марченко Александр Юрьевич</t>
+  </si>
+  <si>
+    <t>f0ggy_m1nd</t>
+  </si>
+  <si>
+    <t>https://vk.com/idquantum32043</t>
+  </si>
+  <si>
+    <t>Мухтасаров Роман Сергеевич</t>
+  </si>
+  <si>
+    <t>Rihter_DM</t>
+  </si>
+  <si>
+    <t>https://vk.com/r.mukhtasarov</t>
+  </si>
+  <si>
+    <t>Недякин Александр Максимович</t>
+  </si>
+  <si>
+    <t>bigmdvd</t>
+  </si>
+  <si>
+    <t>https://vk.com/warrior_survivor</t>
+  </si>
+  <si>
+    <t>Рычихин Семён Андреевич</t>
+  </si>
+  <si>
+    <t>BorisGrushin</t>
+  </si>
+  <si>
+    <t>https://vk.com/id548077311</t>
+  </si>
+  <si>
+    <t>Рябчиков Никита Валентинович</t>
+  </si>
+  <si>
+    <t>nekit_osik4</t>
+  </si>
+  <si>
+    <t>https://vk.com/nekit_os.ssik</t>
+  </si>
+  <si>
+    <t>Савенок Евгений Анатольевич</t>
+  </si>
+  <si>
+    <t>BlizzaryKing</t>
+  </si>
+  <si>
+    <t>https://vk.com/id747523162</t>
+  </si>
+  <si>
+    <t>Сымоник Вадим Валерьевич</t>
+  </si>
+  <si>
+    <t>smn_Vadim</t>
+  </si>
+  <si>
+    <t>https://vk.com/v.symonik</t>
+  </si>
+  <si>
+    <t>Убоженко Максим Александрович</t>
+  </si>
+  <si>
+    <t>forgotedies</t>
+  </si>
+  <si>
+    <t>https://vk.com/makslinkov</t>
+  </si>
+  <si>
+    <t>Устинович Максим Александрович</t>
+  </si>
+  <si>
+    <t>noname_nonamov</t>
+  </si>
+  <si>
+    <t>https://vk.com/s_h_o_l_o_i_m</t>
+  </si>
+  <si>
+    <t>Ханенко Андрей Алексеевич</t>
+  </si>
+  <si>
+    <t>nonamesh1N</t>
+  </si>
+  <si>
+    <t>https://vk.com/nonamesh1n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,25 +540,40 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -335,7 +596,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -404,17 +665,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -458,10 +708,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -469,12 +720,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,69 +730,97 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -823,28 +1099,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="51.44140625" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" customWidth="1"/>
     <col min="3" max="3" width="43.44140625" customWidth="1"/>
     <col min="4" max="4" width="43.109375" customWidth="1"/>
     <col min="5" max="5" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="31">
+      <c r="A1" s="20">
         <v>351003</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -867,228 +1143,508 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>55</v>
+      <c r="B3" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
+      <c r="B5" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
+      <c r="B6" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
+      <c r="B7" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
+      <c r="B8" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
+      <c r="B9" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>55</v>
+      <c r="B10" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
+      <c r="B11" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
+      <c r="B12" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
+      <c r="B15" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
+      <c r="B16" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
+      <c r="B17" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
+      <c r="B18" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
+      <c r="B19" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-    </row>
-    <row r="21" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="27"/>
+      <c r="C31" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A3:E31">
+    <sortCondition ref="B3"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1"/>
+    <hyperlink ref="E11" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1097,7 +1653,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1109,13 +1665,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31">
+      <c r="A1" s="20">
         <v>351004</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1138,202 +1694,304 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="C3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
+      <c r="C6" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
+      <c r="C7" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
+      <c r="C8" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
+      <c r="C9" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
+      <c r="C10" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
+      <c r="C11" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
+      <c r="C12" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="C13" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="C14" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
+      <c r="C15" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
+      <c r="C16" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
+      <c r="C17" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
+      <c r="C18" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="20">
+      <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="27"/>
+      <c r="C19" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="17"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1347,11 +2005,19 @@
     <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <sortState ref="A3:E19">
+    <sortCondition ref="B3"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E13" r:id="rId1"/>
+    <hyperlink ref="E14" r:id="rId2"/>
+    <hyperlink ref="E17" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1359,380 +2025,571 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5546875" customWidth="1"/>
     <col min="2" max="2" width="43.88671875" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="32.33203125" customWidth="1"/>
     <col min="5" max="5" width="36.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="32">
+      <c r="A1" s="21">
         <v>351005</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="4"/>
+      <c r="C6" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="4"/>
+      <c r="C9" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="4"/>
+      <c r="C10" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="4"/>
+      <c r="C13" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="4"/>
+      <c r="C14" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="4"/>
+      <c r="C17" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="4"/>
+      <c r="C18" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="4"/>
+      <c r="C19" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="4"/>
+      <c r="C20" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="4"/>
+      <c r="C21" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="4"/>
+      <c r="C22" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="4"/>
+      <c r="C23" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="4"/>
+      <c r="C24" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="4"/>
+      <c r="C25" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="4"/>
+      <c r="C26" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="4"/>
+      <c r="C27" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="4"/>
+      <c r="C28" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="4"/>
+      <c r="C29" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="4"/>
+      <c r="C30" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="4"/>
+      <c r="C31" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14">
+      <c r="A32" s="7">
         <v>30</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="6"/>
+      <c r="C32" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A3:E32">
+    <sortCondition ref="B3"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E23" r:id="rId1"/>
+    <hyperlink ref="E12" r:id="rId2"/>
+    <hyperlink ref="E13" r:id="rId3"/>
+    <hyperlink ref="E20" r:id="rId4"/>
+    <hyperlink ref="E29" r:id="rId5"/>
+    <hyperlink ref="E32" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Шефы.xlsx
+++ b/Шефы.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="23040" windowHeight="9372" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="351003" sheetId="1" r:id="rId1"/>
@@ -262,18 +262,12 @@
     <t>Бурый Даниил Дмитриевич</t>
   </si>
   <si>
-    <t>Зайцев Арсений Романович</t>
-  </si>
-  <si>
     <t>Непесов Рустам Азатович</t>
   </si>
   <si>
     <t>Гузаев Егор Дмитриевич</t>
   </si>
   <si>
-    <t>Рогинов Антон</t>
-  </si>
-  <si>
     <t>Вердян Давид Сасукович</t>
   </si>
   <si>
@@ -494,6 +488,12 @@
   </si>
   <si>
     <t>https://vk.com/nonamesh1n</t>
+  </si>
+  <si>
+    <t>Зайцев Артемий Романович</t>
+  </si>
+  <si>
+    <t>Рожнов Антон</t>
   </si>
 </sst>
 </file>
@@ -767,56 +767,56 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,13 +1114,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="20">
+      <c r="A1" s="35">
         <v>351003</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1143,84 +1143,84 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>89</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>89</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>93</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>93</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="27" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1228,135 +1228,135 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>93</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>83</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>83</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="28" t="s">
         <v>83</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>150</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>96</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>86</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="27" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1364,16 +1364,16 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="27" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1381,255 +1381,255 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>150</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="27" t="s">
         <v>89</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>96</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>99</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="20" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="27" t="s">
         <v>86</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="25" t="s">
+      <c r="B23" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="27" t="s">
         <v>150</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>86</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="27" t="s">
         <v>99</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="25" t="s">
+      <c r="B27" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="27" t="s">
         <v>153</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="27" t="s">
         <v>153</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="27" t="s">
         <v>99</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="27" t="s">
         <v>96</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" s="30" t="s">
         <v>153</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1665,13 +1665,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20">
+      <c r="A1" s="35">
         <v>351004</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1698,13 +1698,13 @@
         <v>57</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>126</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1715,13 +1715,13 @@
         <v>58</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>132</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1732,13 +1732,13 @@
         <v>59</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1748,14 +1748,14 @@
       <c r="B6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>117</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1765,14 +1765,14 @@
       <c r="B7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>117</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1783,13 +1783,13 @@
         <v>62</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>126</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1800,13 +1800,13 @@
         <v>63</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>132</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1816,14 +1816,14 @@
       <c r="B10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>117</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1834,13 +1834,13 @@
         <v>65</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>129</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1851,13 +1851,13 @@
         <v>66</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>126</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1868,13 +1868,13 @@
         <v>67</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>138</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1885,13 +1885,13 @@
         <v>68</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="28" t="s">
         <v>138</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1901,14 +1901,14 @@
       <c r="B15" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="27" t="s">
         <v>117</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1919,13 +1919,13 @@
         <v>70</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>132</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1936,13 +1936,13 @@
         <v>71</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="28" t="s">
         <v>138</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1953,13 +1953,13 @@
         <v>72</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="27" t="s">
         <v>129</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1970,13 +1970,13 @@
         <v>73</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>108</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2025,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2039,13 +2039,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="21">
+      <c r="A1" s="36">
         <v>351005</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -2071,14 +2071,14 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>111</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2088,14 +2088,14 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>111</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2105,14 +2105,14 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>114</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2122,14 +2122,14 @@
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>120</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2139,14 +2139,14 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>114</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2156,14 +2156,14 @@
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>120</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2173,14 +2173,14 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>102</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2191,13 +2191,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>135</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2208,13 +2208,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>135</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2224,14 +2224,14 @@
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>123</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2241,14 +2241,14 @@
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>123</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2258,14 +2258,14 @@
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>141</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2275,14 +2275,14 @@
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="27" t="s">
         <v>141</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2292,14 +2292,14 @@
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>102</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2309,14 +2309,14 @@
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>102</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2326,14 +2326,14 @@
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="27" t="s">
         <v>105</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2343,14 +2343,14 @@
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>144</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2360,14 +2360,14 @@
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="28" t="s">
         <v>147</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2377,14 +2377,14 @@
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="27" t="s">
         <v>141</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2394,14 +2394,14 @@
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="27" t="s">
         <v>111</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2411,14 +2411,14 @@
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>123</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2428,14 +2428,14 @@
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>120</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2446,13 +2446,13 @@
         <v>25</v>
       </c>
       <c r="C25" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="27" t="s">
         <v>135</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2462,14 +2462,14 @@
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="27" t="s">
         <v>144</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2479,14 +2479,14 @@
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="27" t="s">
         <v>105</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2496,14 +2496,14 @@
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="27" t="s">
         <v>144</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2513,14 +2513,14 @@
       <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="28" t="s">
         <v>147</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2530,14 +2530,14 @@
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="27" t="s">
         <v>105</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2547,14 +2547,14 @@
       <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="27" t="s">
         <v>114</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2564,14 +2564,14 @@
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="34" t="s">
         <v>147</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="36" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Шефы.xlsx
+++ b/Шефы.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="351003" sheetId="1" r:id="rId1"/>
@@ -268,9 +268,6 @@
     <t>Гузаев Егор Дмитриевич</t>
   </si>
   <si>
-    <t>Вердян Давид Сасукович</t>
-  </si>
-  <si>
     <t>Арефин Владислав Андреевич</t>
   </si>
   <si>
@@ -494,6 +491,9 @@
   </si>
   <si>
     <t>Рожнов Антон</t>
+  </si>
+  <si>
+    <t>Вердян Давид Сасунович</t>
   </si>
 </sst>
 </file>
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1144,16 +1144,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="26" t="s">
         <v>88</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1164,13 +1164,13 @@
         <v>77</v>
       </c>
       <c r="C4" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="E4" s="27" t="s">
         <v>88</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1178,16 +1178,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="C5" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="E5" s="27" t="s">
         <v>92</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1198,13 +1198,13 @@
         <v>74</v>
       </c>
       <c r="C6" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="E6" s="27" t="s">
         <v>92</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1232,13 +1232,13 @@
         <v>79</v>
       </c>
       <c r="C8" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="E8" s="27" t="s">
         <v>92</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1249,13 +1249,13 @@
         <v>51</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="E9" s="27" t="s">
         <v>82</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1266,13 +1266,13 @@
         <v>50</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="E10" s="28" t="s">
         <v>82</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1283,13 +1283,13 @@
         <v>49</v>
       </c>
       <c r="C11" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="E11" s="28" t="s">
         <v>82</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1297,16 +1297,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="E12" s="27" t="s">
         <v>149</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1317,13 +1317,13 @@
         <v>48</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="27" t="s">
         <v>95</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1334,13 +1334,13 @@
         <v>47</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="E14" s="27" t="s">
         <v>85</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1385,13 +1385,13 @@
         <v>75</v>
       </c>
       <c r="C17" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="E17" s="27" t="s">
         <v>149</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1402,13 +1402,13 @@
         <v>76</v>
       </c>
       <c r="C18" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="E18" s="27" t="s">
         <v>88</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1419,13 +1419,13 @@
         <v>42</v>
       </c>
       <c r="C19" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="E19" s="27" t="s">
         <v>95</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1436,13 +1436,13 @@
         <v>41</v>
       </c>
       <c r="C20" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="E20" s="27" t="s">
         <v>98</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.3">
@@ -1453,13 +1453,13 @@
         <v>56</v>
       </c>
       <c r="C21" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="E21" s="27" t="s">
         <v>107</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.3">
@@ -1470,13 +1470,13 @@
         <v>40</v>
       </c>
       <c r="C22" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="E22" s="27" t="s">
         <v>85</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.3">
@@ -1487,13 +1487,13 @@
         <v>78</v>
       </c>
       <c r="C23" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="E23" s="27" t="s">
         <v>149</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.3">
@@ -1504,13 +1504,13 @@
         <v>39</v>
       </c>
       <c r="C24" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="E24" s="27" t="s">
         <v>85</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.3">
@@ -1521,13 +1521,13 @@
         <v>38</v>
       </c>
       <c r="C25" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="E25" s="27" t="s">
         <v>98</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.3">
@@ -1538,13 +1538,13 @@
         <v>37</v>
       </c>
       <c r="C26" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="E26" s="27" t="s">
         <v>107</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.3">
@@ -1552,16 +1552,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C27" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="E27" s="27" t="s">
         <v>152</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.3">
@@ -1572,13 +1572,13 @@
         <v>36</v>
       </c>
       <c r="C28" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="E28" s="27" t="s">
         <v>152</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.3">
@@ -1589,13 +1589,13 @@
         <v>35</v>
       </c>
       <c r="C29" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="E29" s="27" t="s">
         <v>98</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.3">
@@ -1606,13 +1606,13 @@
         <v>34</v>
       </c>
       <c r="C30" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="E30" s="27" t="s">
         <v>95</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
@@ -1623,13 +1623,13 @@
         <v>33</v>
       </c>
       <c r="C31" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="E31" s="30" t="s">
         <v>152</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1698,13 +1698,13 @@
         <v>57</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="26" t="s">
         <v>125</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1715,13 +1715,13 @@
         <v>58</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="27" t="s">
         <v>131</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1732,13 +1732,13 @@
         <v>59</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="27" t="s">
         <v>128</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1749,13 +1749,13 @@
         <v>60</v>
       </c>
       <c r="C6" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="E6" s="27" t="s">
         <v>116</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1766,13 +1766,13 @@
         <v>61</v>
       </c>
       <c r="C7" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="E7" s="27" t="s">
         <v>116</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1783,13 +1783,13 @@
         <v>62</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="E8" s="27" t="s">
         <v>125</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1800,13 +1800,13 @@
         <v>63</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="E9" s="27" t="s">
         <v>131</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1817,13 +1817,13 @@
         <v>64</v>
       </c>
       <c r="C10" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="E10" s="27" t="s">
         <v>116</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1834,13 +1834,13 @@
         <v>65</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="27" t="s">
         <v>128</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1851,13 +1851,13 @@
         <v>66</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="27" t="s">
         <v>125</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1868,13 +1868,13 @@
         <v>67</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="28" t="s">
         <v>137</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1885,13 +1885,13 @@
         <v>68</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="28" t="s">
         <v>137</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1902,13 +1902,13 @@
         <v>69</v>
       </c>
       <c r="C15" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="E15" s="27" t="s">
         <v>116</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1919,13 +1919,13 @@
         <v>70</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="E16" s="27" t="s">
         <v>131</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1936,13 +1936,13 @@
         <v>71</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="E17" s="28" t="s">
         <v>137</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1953,13 +1953,13 @@
         <v>72</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="E18" s="27" t="s">
         <v>128</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1970,13 +1970,13 @@
         <v>73</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E19" s="30" t="s">
         <v>107</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2072,13 +2072,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E3" s="26" t="s">
         <v>110</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2089,13 +2089,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="E4" s="27" t="s">
         <v>110</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2106,13 +2106,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="E5" s="27" t="s">
         <v>113</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2123,13 +2123,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="E6" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2140,13 +2140,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="E7" s="27" t="s">
         <v>113</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2157,13 +2157,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="E8" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2174,13 +2174,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="E9" s="27" t="s">
         <v>101</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2191,13 +2191,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="27" t="s">
         <v>134</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2208,13 +2208,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="27" t="s">
         <v>134</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2225,13 +2225,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="E12" s="28" t="s">
         <v>122</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2242,13 +2242,13 @@
         <v>13</v>
       </c>
       <c r="C13" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="E13" s="28" t="s">
         <v>122</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2259,13 +2259,13 @@
         <v>14</v>
       </c>
       <c r="C14" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="E14" s="27" t="s">
         <v>140</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2276,13 +2276,13 @@
         <v>15</v>
       </c>
       <c r="C15" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="E15" s="27" t="s">
         <v>140</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2293,13 +2293,13 @@
         <v>16</v>
       </c>
       <c r="C16" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="E16" s="27" t="s">
         <v>101</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2310,13 +2310,13 @@
         <v>17</v>
       </c>
       <c r="C17" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="E17" s="27" t="s">
         <v>101</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2327,13 +2327,13 @@
         <v>18</v>
       </c>
       <c r="C18" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="E18" s="27" t="s">
         <v>104</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2344,13 +2344,13 @@
         <v>19</v>
       </c>
       <c r="C19" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="E19" s="27" t="s">
         <v>143</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2361,13 +2361,13 @@
         <v>20</v>
       </c>
       <c r="C20" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="E20" s="28" t="s">
         <v>146</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2378,13 +2378,13 @@
         <v>21</v>
       </c>
       <c r="C21" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="E21" s="27" t="s">
         <v>140</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2395,13 +2395,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="E22" s="27" t="s">
         <v>110</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2412,13 +2412,13 @@
         <v>23</v>
       </c>
       <c r="C23" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="E23" s="28" t="s">
         <v>122</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2429,13 +2429,13 @@
         <v>24</v>
       </c>
       <c r="C24" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="E24" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2446,13 +2446,13 @@
         <v>25</v>
       </c>
       <c r="C25" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="E25" s="27" t="s">
         <v>134</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2463,13 +2463,13 @@
         <v>26</v>
       </c>
       <c r="C26" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="E26" s="27" t="s">
         <v>143</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2480,13 +2480,13 @@
         <v>27</v>
       </c>
       <c r="C27" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="E27" s="27" t="s">
         <v>104</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2497,13 +2497,13 @@
         <v>28</v>
       </c>
       <c r="C28" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="E28" s="27" t="s">
         <v>143</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2514,13 +2514,13 @@
         <v>29</v>
       </c>
       <c r="C29" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="E29" s="28" t="s">
         <v>146</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2531,13 +2531,13 @@
         <v>30</v>
       </c>
       <c r="C30" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="E30" s="27" t="s">
         <v>104</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2548,13 +2548,13 @@
         <v>31</v>
       </c>
       <c r="C31" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="E31" s="27" t="s">
         <v>113</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2565,13 +2565,13 @@
         <v>32</v>
       </c>
       <c r="C32" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="E32" s="34" t="s">
         <v>146</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Шефы.xlsx
+++ b/Шефы.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="4800" windowWidth="23040" windowHeight="9372" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="351003" sheetId="1" r:id="rId1"/>
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1653,7 +1653,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2025,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Шефы.xlsx
+++ b/Шефы.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4800" windowWidth="23040" windowHeight="9372" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="351003" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="157">
   <si>
     <t>№</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>Вердян Давид Сасунович</t>
+  </si>
+  <si>
+    <t>Мухоммедов Давлетгелди Мухоммедович</t>
   </si>
 </sst>
 </file>
@@ -596,7 +599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -615,17 +618,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -712,7 +704,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -740,84 +732,79 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1099,28 +1086,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="43.44140625" customWidth="1"/>
     <col min="4" max="4" width="43.109375" customWidth="1"/>
     <col min="5" max="5" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="35">
+      <c r="A1" s="33">
         <v>351003</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1146,13 +1133,13 @@
       <c r="B3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="24" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1163,13 +1150,13 @@
       <c r="B4" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="25" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1180,13 +1167,13 @@
       <c r="B5" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="25" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1197,13 +1184,13 @@
       <c r="B6" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="25" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1214,13 +1201,13 @@
       <c r="B7" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="25" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1231,13 +1218,13 @@
       <c r="B8" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="25" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1248,13 +1235,13 @@
       <c r="B9" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="25" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1265,13 +1252,13 @@
       <c r="B10" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="26" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1282,13 +1269,13 @@
       <c r="B11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="26" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1299,13 +1286,13 @@
       <c r="B12" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="25" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1316,13 +1303,13 @@
       <c r="B13" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="25" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1333,13 +1320,13 @@
       <c r="B14" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="25" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1350,13 +1337,13 @@
       <c r="B15" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="25" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1367,13 +1354,13 @@
       <c r="B16" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="25" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1384,13 +1371,13 @@
       <c r="B17" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="25" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1401,13 +1388,13 @@
       <c r="B18" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="25" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1418,13 +1405,13 @@
       <c r="B19" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="25" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1435,13 +1422,13 @@
       <c r="B20" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="25" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1458,7 +1445,7 @@
       <c r="D21" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="25" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1469,13 +1456,13 @@
       <c r="B22" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="25" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1486,13 +1473,13 @@
       <c r="B23" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="25" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1503,13 +1490,13 @@
       <c r="B24" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="25" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1520,13 +1507,13 @@
       <c r="B25" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="25" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1543,7 +1530,7 @@
       <c r="D26" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="25" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1554,13 +1541,13 @@
       <c r="B27" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="25" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1571,13 +1558,13 @@
       <c r="B28" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="25" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1588,13 +1575,13 @@
       <c r="B29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="25" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1605,31 +1592,48 @@
       <c r="B30" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="25" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="11">
+        <v>30</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1665,13 +1669,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35">
+      <c r="A1" s="33">
         <v>351004</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1703,7 +1707,7 @@
       <c r="D3" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="24" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1720,7 +1724,7 @@
       <c r="D4" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="25" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1737,7 +1741,7 @@
       <c r="D5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="25" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1748,13 +1752,13 @@
       <c r="B6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="25" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1765,13 +1769,13 @@
       <c r="B7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="25" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1788,7 +1792,7 @@
       <c r="D8" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="25" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1805,7 +1809,7 @@
       <c r="D9" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="25" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1816,13 +1820,13 @@
       <c r="B10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="25" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1839,7 +1843,7 @@
       <c r="D11" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="25" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1856,7 +1860,7 @@
       <c r="D12" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="25" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1873,7 +1877,7 @@
       <c r="D13" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="26" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1890,7 +1894,7 @@
       <c r="D14" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="26" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1901,13 +1905,13 @@
       <c r="B15" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="25" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1924,7 +1928,7 @@
       <c r="D16" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="25" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1941,7 +1945,7 @@
       <c r="D17" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="26" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1958,7 +1962,7 @@
       <c r="D18" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="25" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1975,7 +1979,7 @@
       <c r="D19" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="28" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2025,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2039,13 +2043,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="36">
+      <c r="A1" s="34">
         <v>351005</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -2071,13 +2075,13 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="24" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2088,13 +2092,13 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="25" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2105,13 +2109,13 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="25" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2122,13 +2126,13 @@
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="25" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2139,13 +2143,13 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="25" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2156,13 +2160,13 @@
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="25" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2173,13 +2177,13 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="25" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2196,7 +2200,7 @@
       <c r="D10" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="25" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2213,7 +2217,7 @@
       <c r="D11" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="25" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2224,13 +2228,13 @@
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="26" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2241,13 +2245,13 @@
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="26" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2258,13 +2262,13 @@
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="25" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2275,13 +2279,13 @@
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="25" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2292,13 +2296,13 @@
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="25" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2309,13 +2313,13 @@
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="25" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2326,13 +2330,13 @@
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="25" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2343,13 +2347,13 @@
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="25" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2360,13 +2364,13 @@
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="26" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2377,13 +2381,13 @@
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="25" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2394,13 +2398,13 @@
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="25" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2411,13 +2415,13 @@
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="26" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2428,13 +2432,13 @@
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="25" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2451,7 +2455,7 @@
       <c r="D25" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="25" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2462,13 +2466,13 @@
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="25" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2479,13 +2483,13 @@
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="25" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2496,13 +2500,13 @@
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="25" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2513,13 +2517,13 @@
       <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="26" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2530,13 +2534,13 @@
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="25" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2547,13 +2551,13 @@
       <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="25" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2564,13 +2568,13 @@
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="32" t="s">
         <v>146</v>
       </c>
     </row>

--- a/Шефы.xlsx
+++ b/Шефы.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Уник\Младшим\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="7800" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="351003" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="160">
   <si>
     <t>№</t>
   </si>
@@ -253,9 +253,6 @@
     <t>Горник Артур Игоревич</t>
   </si>
   <si>
-    <t>Комашшо Дмитрий Владиславович</t>
-  </si>
-  <si>
     <t>Кривов Александр Геннадьевич</t>
   </si>
   <si>
@@ -497,13 +494,25 @@
   </si>
   <si>
     <t>Мухоммедов Давлетгелди Мухоммедович</t>
+  </si>
+  <si>
+    <t>Петров Даниил</t>
+  </si>
+  <si>
+    <t>Комашило Дмитрий Владиславович</t>
+  </si>
+  <si>
+    <t>Логинов Дмитрий</t>
+  </si>
+  <si>
+    <t>Кулышов Давид</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,11 +550,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <u/>
@@ -599,7 +603,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -637,15 +641,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -667,24 +662,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -702,9 +679,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -715,96 +692,59 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1086,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,13 +1041,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="33">
+      <c r="A1" s="19">
         <v>351003</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1130,522 +1070,437 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="E4" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="E5" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>92</v>
+      <c r="B6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>55</v>
+      <c r="B7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>92</v>
+      <c r="D8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>82</v>
+      <c r="B10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="26" t="s">
+      <c r="B11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>82</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>149</v>
+      <c r="B12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>95</v>
+      <c r="B13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>85</v>
+      <c r="B14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="B16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>98</v>
+      <c r="B20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>107</v>
+      <c r="B21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>85</v>
+      <c r="B22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23" s="25" t="s">
+      <c r="B23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>149</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>85</v>
+      <c r="B24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>98</v>
+      <c r="B25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="B26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="21">
         <v>25</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>26</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>27</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>28</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>29</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="11">
-        <v>30</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>149</v>
+      <c r="B27" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:E31">
+  <sortState ref="A3:E26">
     <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1"/>
-    <hyperlink ref="E11" r:id="rId2"/>
+    <hyperlink ref="E8" r:id="rId1"/>
+    <hyperlink ref="E9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1657,7 +1512,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1669,13 +1524,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33">
+      <c r="A1" s="19">
         <v>351004</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1698,304 +1553,318 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="E6" s="13" t="s">
         <v>115</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>116</v>
-      </c>
+      <c r="B7" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>125</v>
+      <c r="B8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>131</v>
+      <c r="B9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>116</v>
+      <c r="B10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>128</v>
+      <c r="B11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="B12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>125</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>137</v>
+      <c r="B13" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>137</v>
+      <c r="B14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>116</v>
+      <c r="B15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>131</v>
+      <c r="B16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>137</v>
+      <c r="B17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="E20" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11">
-        <v>17</v>
-      </c>
-      <c r="B19" s="19" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C21" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E19" s="28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2009,28 +1878,29 @@
     <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sortState ref="A3:E19">
+  <sortState ref="A3:E21">
     <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E13" r:id="rId1"/>
-    <hyperlink ref="E14" r:id="rId2"/>
-    <hyperlink ref="E17" r:id="rId3"/>
+    <hyperlink ref="E15" r:id="rId1"/>
+    <hyperlink ref="E16" r:id="rId2"/>
+    <hyperlink ref="E19" r:id="rId3"/>
+    <hyperlink ref="E13" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2043,555 +1913,657 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="34">
+      <c r="A1" s="20">
         <v>351005</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="E3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="E4" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="E5" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="E6" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="E7" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="E8" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="E9" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="E12" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="E13" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="E14" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="E15" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="E16" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="25" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="25" t="s">
+      <c r="D20" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="22" t="s">
+      <c r="D32" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="E32" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="22" t="s">
+    </row>
+    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="E33" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="25" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="22" t="s">
+      <c r="D34" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="E34" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E20" s="26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="25" t="s">
+    </row>
+    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="25" t="s">
+      <c r="D36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="22" t="s">
+      <c r="D37" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="E37" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E29" s="26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>146</v>
+    </row>
+    <row r="38" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:E32">
+  <sortState ref="A3:E38">
     <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E23" r:id="rId1"/>
+    <hyperlink ref="E26" r:id="rId1"/>
     <hyperlink ref="E12" r:id="rId2"/>
     <hyperlink ref="E13" r:id="rId3"/>
-    <hyperlink ref="E20" r:id="rId4"/>
-    <hyperlink ref="E29" r:id="rId5"/>
-    <hyperlink ref="E32" r:id="rId6"/>
+    <hyperlink ref="E22" r:id="rId4"/>
+    <hyperlink ref="E34" r:id="rId5"/>
+    <hyperlink ref="E37" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/Шефы.xlsx
+++ b/Шефы.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Уник\Младшим\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="9000" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="351003" sheetId="1" r:id="rId1"/>
@@ -583,7 +583,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,12 +593,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6F7FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,15 +675,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -733,17 +724,17 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1041,13 +1032,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="19">
+      <c r="A1" s="20">
         <v>351003</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1070,16 +1061,16 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1087,16 +1078,16 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1104,16 +1095,16 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1121,16 +1112,16 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1138,16 +1129,16 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1155,16 +1146,16 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1172,16 +1163,16 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1189,16 +1180,16 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1206,16 +1197,16 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1223,16 +1214,16 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1240,16 +1231,16 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1257,16 +1248,16 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1274,16 +1265,16 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1291,16 +1282,16 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1308,16 +1299,16 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1325,16 +1316,16 @@
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1342,16 +1333,16 @@
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1359,16 +1350,16 @@
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1376,16 +1367,16 @@
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1393,16 +1384,16 @@
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1410,16 +1401,16 @@
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1427,16 +1418,16 @@
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1444,16 +1435,16 @@
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="12" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1461,33 +1452,33 @@
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="12" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="21">
+      <c r="A27" s="18">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="15" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1524,13 +1515,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19">
+      <c r="A1" s="20">
         <v>351004</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1553,16 +1544,16 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1570,16 +1561,16 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1587,16 +1578,16 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1604,16 +1595,16 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1621,27 +1612,27 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1649,16 +1640,16 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1666,16 +1657,16 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1683,16 +1674,16 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1700,16 +1691,16 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1717,16 +1708,16 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1734,16 +1725,16 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1751,16 +1742,16 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1768,16 +1759,16 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1785,16 +1776,16 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1802,16 +1793,16 @@
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1819,16 +1810,16 @@
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1836,16 +1827,16 @@
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1853,16 +1844,16 @@
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1899,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1913,640 +1904,640 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="20">
+      <c r="A1" s="21">
         <v>351005</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="12" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="12" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="13" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="13" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>151</v>
       </c>
     </row>

--- a/Шефы.xlsx
+++ b/Шефы.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Уник\Младшим\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Младшим\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9000" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="10800" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="351003" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="164">
   <si>
     <t>№</t>
   </si>
@@ -506,6 +506,18 @@
   </si>
   <si>
     <t>Кулышов Давид</t>
+  </si>
+  <si>
+    <t>Иванникова Анна Александровна/ Крутько Андрей Алексеевич</t>
+  </si>
+  <si>
+    <t>IAAnelisA / obgdete</t>
+  </si>
+  <si>
+    <t>https://vk.com/id287899888 и https://vk.com/determined_obg</t>
+  </si>
+  <si>
+    <t>Фенько Артур Максимович</t>
   </si>
 </sst>
 </file>
@@ -597,7 +609,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -670,12 +682,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -693,9 +778,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -735,6 +817,50 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1020,27 +1146,27 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="43.44140625" customWidth="1"/>
-    <col min="4" max="4" width="43.109375" customWidth="1"/>
-    <col min="5" max="5" width="34.109375" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="20">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="19">
         <v>351003</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,62 +1183,62 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1121,15 +1247,15 @@
       <c r="D6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1138,15 +1264,15 @@
       <c r="D7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1155,15 +1281,15 @@
       <c r="D8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1172,15 +1298,15 @@
       <c r="D9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1189,15 +1315,15 @@
       <c r="D10" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1206,15 +1332,15 @@
       <c r="D11" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1223,15 +1349,15 @@
       <c r="D12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1240,15 +1366,15 @@
       <c r="D13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1257,15 +1383,15 @@
       <c r="D14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1274,15 +1400,15 @@
       <c r="D15" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1291,15 +1417,15 @@
       <c r="D16" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -1308,49 +1434,49 @@
       <c r="D17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1359,32 +1485,32 @@
       <c r="D20" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>95</v>
+      <c r="C21" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1393,32 +1519,32 @@
       <c r="D22" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1427,15 +1553,15 @@
       <c r="D24" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -1444,41 +1570,41 @@
       <c r="D25" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18">
+    <row r="27" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
         <v>25</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="14" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1492,9 +1618,10 @@
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1"/>
     <hyperlink ref="E9" r:id="rId2"/>
+    <hyperlink ref="E21" r:id="rId3" display="https://vk.com/id287899888 / "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1503,27 +1630,27 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.88671875" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="47.77734375" customWidth="1"/>
-    <col min="5" max="5" width="39.21875" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20">
+    <row r="1" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19">
         <v>351004</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1540,334 +1667,350 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="26" t="s">
         <v>122</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="27" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="28" t="s">
         <v>128</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="28" t="s">
         <v>125</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="29" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="31"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="29" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="28" t="s">
         <v>122</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="29" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="28" t="s">
         <v>128</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="29" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="28" t="s">
         <v>125</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="33" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="28" t="s">
         <v>122</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="29" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="28" t="s">
         <v>134</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="34" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="28" t="s">
         <v>134</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="34" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="29" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="28" t="s">
         <v>128</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="28" t="s">
         <v>134</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="34" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="28" t="s">
         <v>125</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+    <row r="21" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
         <v>19</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="17">
+        <v>20</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A3:E21">
     <sortCondition ref="B3"/>
@@ -1880,39 +2023,41 @@
     <hyperlink ref="E16" r:id="rId2"/>
     <hyperlink ref="E19" r:id="rId3"/>
     <hyperlink ref="E13" r:id="rId4"/>
+    <hyperlink ref="E22" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" customWidth="1"/>
-    <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="36.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="21">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="20">
         <v>351005</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1928,131 +2073,132 @@
       <c r="E2" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2061,15 +2207,15 @@
       <c r="D10" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2078,321 +2224,321 @@
       <c r="D11" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -2401,143 +2547,143 @@
       <c r="D30" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>36</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="14" t="s">
         <v>151</v>
       </c>
     </row>

--- a/Шефы.xlsx
+++ b/Шефы.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10800" windowWidth="23040" windowHeight="9375"/>
+    <workbookView xWindow="0" yWindow="11400" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="351003" sheetId="1" r:id="rId1"/>
@@ -812,12 +812,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -861,6 +855,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1146,7 +1146,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,15 +1158,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19">
+      <c r="A1" s="35">
         <v>351003</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1190,14 +1190,14 @@
       <c r="B3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>87</v>
+      <c r="C3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1496,13 +1496,13 @@
       <c r="B21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="19" t="s">
         <v>160</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="21" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1642,13 +1642,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19">
+      <c r="A1" s="35">
         <v>351004</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1674,13 +1674,13 @@
       <c r="B3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>122</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="25" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1691,13 +1691,13 @@
       <c r="B4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="26" t="s">
         <v>128</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="27" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1708,13 +1708,13 @@
       <c r="B5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>125</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="27" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1725,13 +1725,13 @@
       <c r="B6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="28" t="s">
         <v>113</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="27" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1742,9 +1742,9 @@
       <c r="B7" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="31"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="32"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1753,13 +1753,13 @@
       <c r="B8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="28" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="27" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1770,13 +1770,13 @@
       <c r="B9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="26" t="s">
         <v>122</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="27" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1787,13 +1787,13 @@
       <c r="B10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="26" t="s">
         <v>128</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="27" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1804,13 +1804,13 @@
       <c r="B11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="28" t="s">
         <v>113</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="27" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1821,13 +1821,13 @@
       <c r="B12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="26" t="s">
         <v>125</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="27" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1838,13 +1838,13 @@
       <c r="B13" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="28" t="s">
         <v>119</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="31" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1855,13 +1855,13 @@
       <c r="B14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="26" t="s">
         <v>122</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="27" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1872,13 +1872,13 @@
       <c r="B15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="26" t="s">
         <v>134</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="32" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1889,13 +1889,13 @@
       <c r="B16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="26" t="s">
         <v>134</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="32" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1906,13 +1906,13 @@
       <c r="B17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="28" t="s">
         <v>113</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="27" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1923,13 +1923,13 @@
       <c r="B18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="26" t="s">
         <v>128</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="27" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1940,13 +1940,13 @@
       <c r="B19" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="26" t="s">
         <v>134</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="32" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1957,30 +1957,30 @@
       <c r="B20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="26" t="s">
         <v>125</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="27" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+      <c r="A21" s="22">
         <v>19</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="26" t="s">
         <v>104</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="27" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1991,13 +1991,13 @@
       <c r="B22" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="33" t="s">
         <v>119</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2034,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="C16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2049,13 +2049,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="20">
+      <c r="A1" s="36">
         <v>351005</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -2479,7 +2479,7 @@
       <c r="D26" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="20" t="s">
         <v>121</v>
       </c>
     </row>

--- a/Шефы.xlsx
+++ b/Шефы.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Младшим\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\Desktop\списки разные\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11400" windowWidth="23040" windowHeight="9375"/>
+    <workbookView xWindow="0" yWindow="10200" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="351003" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="160">
   <si>
     <t>№</t>
   </si>
@@ -506,18 +506,6 @@
   </si>
   <si>
     <t>Кулышов Давид</t>
-  </si>
-  <si>
-    <t>Иванникова Анна Александровна/ Крутько Андрей Алексеевич</t>
-  </si>
-  <si>
-    <t>IAAnelisA / obgdete</t>
-  </si>
-  <si>
-    <t>https://vk.com/id287899888 и https://vk.com/determined_obg</t>
-  </si>
-  <si>
-    <t>Фенько Артур Максимович</t>
   </si>
 </sst>
 </file>
@@ -609,7 +597,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -682,85 +670,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -778,6 +693,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -811,50 +729,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1146,7 +1020,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,15 +1032,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="35">
+      <c r="A1" s="20">
         <v>351003</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-    </row>
-    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1187,33 +1061,33 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>99</v>
+      <c r="C3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1221,16 +1095,16 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1238,24 +1112,24 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>55</v>
+        <v>132</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1264,7 +1138,7 @@
       <c r="D7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1272,7 +1146,7 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1281,7 +1155,7 @@
       <c r="D8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1289,7 +1163,7 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1298,7 +1172,7 @@
       <c r="D9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1306,7 +1180,7 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1315,7 +1189,7 @@
       <c r="D10" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1323,7 +1197,7 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1332,7 +1206,7 @@
       <c r="D11" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="12" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1340,7 +1214,7 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1349,7 +1223,7 @@
       <c r="D12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="12" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1357,7 +1231,7 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1366,7 +1240,7 @@
       <c r="D13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="12" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1374,7 +1248,7 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1383,7 +1257,7 @@
       <c r="D14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="12" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1391,7 +1265,7 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1400,7 +1274,7 @@
       <c r="D15" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="12" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1408,7 +1282,7 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1417,7 +1291,7 @@
       <c r="D16" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="12" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1425,7 +1299,7 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -1434,7 +1308,7 @@
       <c r="D17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="12" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1442,16 +1316,16 @@
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="12" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1459,16 +1333,16 @@
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="12" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1476,7 +1350,7 @@
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1485,32 +1359,32 @@
       <c r="D20" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>160</v>
+      <c r="C21" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>162</v>
+        <v>96</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1519,7 +1393,7 @@
       <c r="D22" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="12" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1527,16 +1401,16 @@
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="12" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1544,7 +1418,7 @@
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1553,7 +1427,7 @@
       <c r="D24" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="12" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1561,7 +1435,7 @@
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -1570,7 +1444,7 @@
       <c r="D25" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="12" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1578,33 +1452,33 @@
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="12" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
+      <c r="A27" s="18">
         <v>25</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="15" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1618,10 +1492,9 @@
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1"/>
     <hyperlink ref="E9" r:id="rId2"/>
-    <hyperlink ref="E21" r:id="rId3" display="https://vk.com/id287899888 / "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1629,26 +1502,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
     <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35">
+      <c r="A1" s="20">
         <v>351004</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1671,16 +1544,16 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="5" t="s">
         <v>122</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1688,16 +1561,16 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="12" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1705,16 +1578,16 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="6" t="s">
         <v>125</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="12" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1722,16 +1595,16 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="12" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1739,27 +1612,27 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="30"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="12" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1767,16 +1640,16 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="6" t="s">
         <v>122</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1784,16 +1657,16 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="12" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1801,16 +1674,16 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="12" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1818,16 +1691,16 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="6" t="s">
         <v>125</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="12" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1835,16 +1708,16 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="13" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1852,16 +1725,16 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="6" t="s">
         <v>122</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1869,16 +1742,16 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="6" t="s">
         <v>134</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="13" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1886,16 +1759,16 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="6" t="s">
         <v>134</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="13" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1903,16 +1776,16 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="12" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1920,16 +1793,16 @@
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="12" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1937,16 +1810,16 @@
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="6" t="s">
         <v>134</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="13" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1954,53 +1827,37 @@
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="6" t="s">
         <v>125</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+    <row r="21" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="17">
-        <v>20</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>121</v>
-      </c>
-    </row>
+    <row r="22" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2023,10 +1880,9 @@
     <hyperlink ref="E16" r:id="rId2"/>
     <hyperlink ref="E19" r:id="rId3"/>
     <hyperlink ref="E13" r:id="rId4"/>
-    <hyperlink ref="E22" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2034,28 +1890,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="C16:E16"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" customWidth="1"/>
     <col min="5" max="5" width="36.5703125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36">
+      <c r="A1" s="21">
         <v>351005</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -2079,16 +1935,16 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2096,16 +1952,16 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2113,16 +1969,16 @@
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2130,16 +1986,16 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2147,16 +2003,16 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2164,16 +2020,16 @@
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2181,16 +2037,16 @@
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2198,7 +2054,7 @@
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2207,7 +2063,7 @@
       <c r="D10" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2215,7 +2071,7 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2224,7 +2080,7 @@
       <c r="D11" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2232,16 +2088,16 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2249,16 +2105,16 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="13" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2266,16 +2122,16 @@
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="12" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2283,16 +2139,16 @@
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="12" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2300,16 +2156,16 @@
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="12" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2317,33 +2173,33 @@
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>115</v>
+      <c r="C17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="12" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2351,16 +2207,16 @@
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="12" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2368,16 +2224,16 @@
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="12" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2385,16 +2241,16 @@
       <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="12" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2402,16 +2258,16 @@
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="13" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2419,16 +2275,16 @@
       <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="12" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2436,16 +2292,16 @@
       <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="12" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2453,16 +2309,16 @@
       <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="12" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2470,16 +2326,16 @@
       <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="13" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2487,16 +2343,16 @@
       <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="12" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2504,16 +2360,16 @@
       <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="12" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2521,16 +2377,16 @@
       <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="12" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2538,7 +2394,7 @@
       <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -2547,7 +2403,7 @@
       <c r="D30" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2555,16 +2411,16 @@
       <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="12" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2572,16 +2428,16 @@
       <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="12" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2589,16 +2445,16 @@
       <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="12" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2606,16 +2462,16 @@
       <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="13" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2623,16 +2479,16 @@
       <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="12" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2640,16 +2496,16 @@
       <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="12" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2657,16 +2513,16 @@
       <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="13" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2674,16 +2530,16 @@
       <c r="A38" s="4">
         <v>36</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="15" t="s">
         <v>151</v>
       </c>
     </row>
